--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>类别实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,21 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型朝向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnYaw[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-102.9299, 191.0, -150.922</t>
-  </si>
-  <si>
-    <t>spawnPos[][funcEval]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,22 +290,13 @@
   <si>
     <t>传送员</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-105.0, 191.0, -150.922</t>
-  </si>
-  <si>
-    <t>-132.9299, 191.0, -140.922</t>
-  </si>
-  <si>
-    <t>-132.9299, 191.0, -150.922</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -334,12 +310,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -363,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -383,13 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,10 +760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -809,38 +773,30 @@
     <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,17 +812,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -877,22 +827,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>1001</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -903,22 +847,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>1001</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,90 +867,84 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1002</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1003</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2">
         <v>1001</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>1002</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -763,7 +763,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -821,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>1001</v>
+        <v>10001001</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="2">
-        <v>1001</v>
+        <v>10001001</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>38</v>
@@ -841,7 +841,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="2">
-        <v>1002</v>
+        <v>10002001</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="2">
-        <v>1001</v>
+        <v>10001001</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>38</v>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>1003</v>
+        <v>10003001</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="2">
-        <v>1002</v>
+        <v>10001001</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1004</v>
+        <v>10004001</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="2">
-        <v>1003</v>
+        <v>10004001</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>2001</v>
+        <v>20001001</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="2">
-        <v>1001</v>
+        <v>20001001</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>2002</v>
+        <v>20002001</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="2">
-        <v>1002</v>
+        <v>20002001</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>2003</v>
+        <v>20003001</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="2">
-        <v>1003</v>
+        <v>20001001</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -959,7 +959,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>类别实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,28 @@
   </si>
   <si>
     <t>传送员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾克斯球</t>
+  </si>
+  <si>
+    <t>压力山大巨龙</t>
+  </si>
+  <si>
+    <t>moveSpeed[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runSpeed[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,10 +782,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -772,11 +794,11 @@
     <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="21.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -793,10 +815,16 @@
         <v>28</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,11 +840,17 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -832,11 +866,17 @@
       <c r="E3" s="2">
         <v>10001001</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>65</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -852,11 +892,17 @@
       <c r="E4" s="2">
         <v>10001001</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>65</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -872,9 +918,15 @@
       <c r="E5" s="2">
         <v>10001001</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2">
+        <v>65</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -890,9 +942,15 @@
       <c r="E6" s="2">
         <v>10004001</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>65</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,14 +961,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>20001001</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2">
+        <v>65</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,14 +985,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>20002001</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,7 +1014,13 @@
       <c r="E9" s="2">
         <v>20001001</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>65</v>
+      </c>
+      <c r="H9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="-21495" yWindow="27165" windowWidth="7995" windowHeight="13620"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>类别实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,12 +313,20 @@
     <t>跑动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -456,6 +464,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -780,15 +793,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
@@ -798,7 +811,7 @@
     <col min="8" max="8" width="27.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -824,7 +837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -876,7 +889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -902,7 +915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -926,7 +939,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -950,7 +963,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -974,7 +987,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1011,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,6 +1034,52 @@
         <v>65</v>
       </c>
       <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40001001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2">
+        <v>40001001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>40001002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2">
+        <v>40001001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,19 +1090,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1051,17 +1110,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -1074,21 +1133,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="35.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1099,12 +1158,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>类别实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,14 @@
   </si>
   <si>
     <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门(teleport-back)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门(teleport-local)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1069,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2">
         <v>40001001</v>
@@ -1078,6 +1086,29 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>40001003</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40001001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>类别实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,62 @@
   </si>
   <si>
     <t>传送门(teleport-local)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +859,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1110,6 +1166,328 @@
       </c>
       <c r="G12" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>80001002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>80001003</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>80001004</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>80001005</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>80001006</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>80001007</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>80001008</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>80001009</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>80001010</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>80001011</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>80001012</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>80001013</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>80001014</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="2">
+        <v>80001001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1205,7 +1205,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="2">
-        <v>80001001</v>
+        <v>80001002</v>
       </c>
       <c r="F14" s="2">
         <v>30</v>
@@ -1228,7 +1228,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="2">
-        <v>80001001</v>
+        <v>80001003</v>
       </c>
       <c r="F15" s="2">
         <v>30</v>
@@ -1251,7 +1251,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="2">
-        <v>80001001</v>
+        <v>80001004</v>
       </c>
       <c r="F16" s="2">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="2">
-        <v>80001001</v>
+        <v>80001005</v>
       </c>
       <c r="F17" s="2">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="2">
-        <v>80001001</v>
+        <v>80001006</v>
       </c>
       <c r="F18" s="2">
         <v>30</v>
@@ -1320,7 +1320,7 @@
         <v>60</v>
       </c>
       <c r="E19" s="2">
-        <v>80001001</v>
+        <v>80001007</v>
       </c>
       <c r="F19" s="2">
         <v>30</v>
@@ -1343,7 +1343,7 @@
         <v>61</v>
       </c>
       <c r="E20" s="2">
-        <v>80001001</v>
+        <v>80001008</v>
       </c>
       <c r="F20" s="2">
         <v>30</v>
@@ -1366,7 +1366,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="2">
-        <v>80001001</v>
+        <v>80001009</v>
       </c>
       <c r="F21" s="2">
         <v>30</v>
@@ -1389,7 +1389,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="2">
-        <v>80001001</v>
+        <v>80001010</v>
       </c>
       <c r="F22" s="2">
         <v>30</v>
@@ -1412,7 +1412,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="2">
-        <v>80001001</v>
+        <v>80001011</v>
       </c>
       <c r="F23" s="2">
         <v>30</v>
@@ -1435,7 +1435,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="2">
-        <v>80001001</v>
+        <v>80001012</v>
       </c>
       <c r="F24" s="2">
         <v>30</v>
@@ -1458,7 +1458,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="2">
-        <v>80001001</v>
+        <v>80001013</v>
       </c>
       <c r="F25" s="2">
         <v>30</v>
@@ -1481,7 +1481,7 @@
         <v>67</v>
       </c>
       <c r="E26" s="2">
-        <v>80001001</v>
+        <v>80001014</v>
       </c>
       <c r="F26" s="2">
         <v>30</v>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/NPC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>类别实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,12 +385,45 @@
     <t>怪物14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>10001001</t>
+  </si>
+  <si>
+    <t>新手接待员</t>
+  </si>
+  <si>
+    <t>传送员</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -406,13 +439,39 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,10 +483,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -451,12 +516,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -859,10 +942,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -927,567 +1010,751 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="14">
         <v>10001001</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="14">
         <v>10001001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="14">
         <v>50</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="14">
         <v>65</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="14">
         <v>10002001</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="14">
         <v>10001001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="14">
         <v>50</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="14">
         <v>65</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="14">
         <v>10003001</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="14">
         <v>10001001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="14">
         <v>50</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="14">
         <v>65</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="14">
         <v>10004001</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="14">
         <v>10004001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="14">
         <v>50</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="14">
         <v>65</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="14">
         <v>20001001</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="14">
         <v>20001001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="14">
         <v>50</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="14">
         <v>65</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="14">
         <v>20002001</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="14">
         <v>20002001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="14">
         <v>50</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="14">
         <v>65</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="14">
         <v>20003001</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="14">
         <v>20001001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="14">
         <v>50</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="14">
         <v>65</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="14">
         <v>40001001</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="14">
         <v>40001001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="14">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="14">
         <v>40001002</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="14">
         <v>40001001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="14">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="14">
         <v>40001003</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="14">
         <v>40001001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="14">
         <v>0</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>80001001</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="10">
         <v>80001001</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="10">
         <v>30</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
-        <v>80001002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="10">
+        <v>80002001</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2">
-        <v>80001002</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="10">
+        <v>80002001</v>
+      </c>
+      <c r="F14" s="10">
         <v>30</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>80001003</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="10">
+        <v>80003001</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="2">
-        <v>80001003</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="10">
+        <v>80003001</v>
+      </c>
+      <c r="F15" s="10">
         <v>30</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
-        <v>80001004</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="10">
+        <v>80004001</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2">
-        <v>80001004</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="10">
+        <v>80004001</v>
+      </c>
+      <c r="F16" s="10">
         <v>30</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
-        <v>80001005</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="10">
+        <v>80005001</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="2">
-        <v>80001005</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="10">
+        <v>80005001</v>
+      </c>
+      <c r="F17" s="10">
         <v>30</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
-        <v>80001006</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="10">
+        <v>80006001</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="2">
-        <v>80001006</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="10">
+        <v>80006001</v>
+      </c>
+      <c r="F18" s="10">
         <v>30</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
-        <v>80001007</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="10">
+        <v>80007001</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="2">
-        <v>80001007</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="10">
+        <v>80007001</v>
+      </c>
+      <c r="F19" s="10">
         <v>30</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2">
-        <v>80001008</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="10">
+        <v>80008001</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2">
-        <v>80001008</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="10">
+        <v>80008001</v>
+      </c>
+      <c r="F20" s="10">
         <v>30</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2">
-        <v>80001009</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="10">
+        <v>80009001</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="2">
-        <v>80001009</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="10">
+        <v>80009001</v>
+      </c>
+      <c r="F21" s="10">
         <v>30</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2">
-        <v>80001010</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="10">
+        <v>80010001</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2">
-        <v>80001010</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="10">
+        <v>80010001</v>
+      </c>
+      <c r="F22" s="10">
         <v>30</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2">
-        <v>80001011</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="10">
+        <v>80011001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2">
-        <v>80001011</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="10">
+        <v>80011001</v>
+      </c>
+      <c r="F23" s="10">
         <v>30</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2">
-        <v>80001012</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B24" s="10">
+        <v>80012001</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="2">
-        <v>80001012</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="10">
+        <v>80012001</v>
+      </c>
+      <c r="F24" s="10">
         <v>30</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2">
-        <v>80001013</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="10">
+        <v>80013001</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="2">
-        <v>80001013</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" s="10">
+        <v>80013001</v>
+      </c>
+      <c r="F25" s="10">
         <v>30</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2">
-        <v>80001014</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B26" s="10">
+        <v>80014001</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="2">
-        <v>80001014</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="10">
+        <v>80014001</v>
+      </c>
+      <c r="F26" s="10">
         <v>30</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="10">
         <v>60</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F27" s="2">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2">
+        <v>65</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F28" s="2">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2">
+        <v>65</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1003</v>
+      </c>
+      <c r="F29" s="2">
+        <v>50</v>
+      </c>
+      <c r="G29" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1004</v>
+      </c>
+      <c r="F30" s="2">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>50</v>
+      </c>
+      <c r="G31" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2002</v>
+      </c>
+      <c r="F32" s="2">
+        <v>50</v>
+      </c>
+      <c r="G32" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F33" s="2">
+        <v>50</v>
+      </c>
+      <c r="G33" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
